--- a/va_facility_data_2025-02-20/Chicago Heights VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Chicago%20Heights%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Chicago Heights VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Chicago%20Heights%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd121a20255ae491fb76db78c59c3ce74"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfaf717be51bd4514aaeeb0aee0347dd7"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1459a48a92b644d38739e1e6c7e25088"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd53f439932214615b7eb77eeb0fd28ff"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra4431373903b4166b90225d286692072"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R15c4cb2c86d94090b3b6640074df08f7"/>
   </x:sheets>
 </x:workbook>
 </file>
